--- a/AutoChessServer/_Out/NFDataCfg/Excel/Comm/IObject.xlsx
+++ b/AutoChessServer/_Out/NFDataCfg/Excel/Comm/IObject.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\AutoChessServer\_Out\NFDataCfg\Excel\Comm\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MyAutoChess\AutoChessServer\_Out\NFDataCfg\Excel\Comm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{018FE4D7-AD93-4D66-9095-86E59EED10B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2AF7101-4374-4087-A359-0A027DEB4936}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -711,7 +711,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K16" sqref="K16"/>
+      <selection pane="bottomLeft" activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1142,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" s="3">
         <v>0</v>
@@ -1192,7 +1192,7 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1 J1:N1 O1 A7:A9" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 J2 B3:C3 J3 J7:N9 L3:M3 N3 O3 J4 J5:N6 L4:M4 N4 O4 F10:F1048576 I3:I6 I7:I9 O5:O6 O7:O9 O10:O1048576 F3:H6 B7:H9 J10:N1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 J2 B3:C3 J3 J7:N9 L3:M3 N3 O3 J4 J5:N6 L4:M4 N4 O4 F10:F1048576 I3:I6 I7:I9 O5:O6 O7:O9 O10:O1048576 F3:H6 J10:N1048576 B7:F9 H7:H9 G7:G8" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
